--- a/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/resource/ApacheExcel2.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnoStudy\IdeaProjects\Cucumber_Kursu5\src\test\java\ApachePOI\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IdeaProjects\Cucumber6Ogr\src\test\java\ApachePOI\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7B512-40FE-469B-B1E6-4A7B864F2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="testCitizen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,62 +75,68 @@
     <t>bes</t>
   </si>
   <si>
-    <t>ulis111</t>
-  </si>
-  <si>
-    <t>ulis112</t>
-  </si>
-  <si>
-    <t>ulis113</t>
-  </si>
-  <si>
-    <t>ulis114</t>
-  </si>
-  <si>
-    <t>ulis115</t>
-  </si>
-  <si>
-    <t>ulis116</t>
-  </si>
-  <si>
-    <t>ulis117</t>
-  </si>
-  <si>
-    <t>ulis118</t>
-  </si>
-  <si>
-    <t>ubs111</t>
-  </si>
-  <si>
-    <t>ubs112</t>
-  </si>
-  <si>
-    <t>ubs113</t>
-  </si>
-  <si>
-    <t>ubs114</t>
-  </si>
-  <si>
-    <t>ubs115</t>
-  </si>
-  <si>
-    <t>ubs116</t>
-  </si>
-  <si>
-    <t>ubs117</t>
-  </si>
-  <si>
-    <t>ubs118</t>
+    <t>Muhtar1</t>
+  </si>
+  <si>
+    <t>Muhtar2</t>
+  </si>
+  <si>
+    <t>Muhtar3</t>
+  </si>
+  <si>
+    <t>Muhtar4</t>
+  </si>
+  <si>
+    <t>Muhtar5</t>
+  </si>
+  <si>
+    <t>Muhtar6</t>
+  </si>
+  <si>
+    <t>Muhtar7</t>
+  </si>
+  <si>
+    <t>Muhtar8</t>
+  </si>
+  <si>
+    <t>muh1</t>
+  </si>
+  <si>
+    <t>muh2</t>
+  </si>
+  <si>
+    <t>muh3</t>
+  </si>
+  <si>
+    <t>muh4</t>
+  </si>
+  <si>
+    <t>muh5</t>
+  </si>
+  <si>
+    <t>muh6</t>
+  </si>
+  <si>
+    <t>muh7</t>
+  </si>
+  <si>
+    <t>muh8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,16 +444,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -465,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -473,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -481,7 +499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -489,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -497,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -509,19 +527,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -541,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -561,7 +579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -581,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -601,7 +619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -621,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -641,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -661,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -682,6 +700,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>